--- a/biology/Botanique/Fittonia/Fittonia.xlsx
+++ b/biology/Botanique/Fittonia/Fittonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fittonia est un genre de plantes à fleurs de la famille des Acanthaceae originaires de Colombie et du Pérou. Poussant dans les forêts pluvieuses, elles exigent un taux d'humidité élevé.
 Le nom Fittonia a été donné par Eugène Coemans en hommage à la botaniste irlandaise Sarah Mary Fitton et à sa sœur Elizabeth.
@@ -512,12 +524,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1] 9 octobre 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 9 octobre 2012
 Fittonia albivenis  (Lindl. ex Veitch) Brummitt , (1979)
 Fittonia gigantea  Linden , (1869)
-Selon NCBI  (3 août 2010)[2] :
+Selon NCBI  (3 août 2010) :
 Fittonia albivenis
 Fittonia verschaffeltii</t>
         </is>
@@ -547,9 +561,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1], 9 octobre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List", 9 octobre 2012
 Fittonia verschaffeltii (Lem.) Van Houtte 	= Fittonia albivenis  (Lindl. ex Veitch) Brummitt, (1979)
 Fittonia verschaffeltii var. argyroneura (Coem.) Regel = Fittonia albivenis (Lindl. ex Veitch) Brummitt, (1979)
 Fittonia verschaffeltii f. argyroneura (Coem.) Voss = Fittonia albivenis (Lindl. ex Veitch) Brummitt, (1979)
@@ -581,9 +597,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1], 9 octobre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List", 9 octobre 2012
 Fittonia argyroneura Coem.
 Fittonia pearcei (Veitch) Verschaff.</t>
         </is>
